--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/core-full-deluxe-TTBS-25poff.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/core-full-deluxe-TTBS-25poff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/CrepeErase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{D22996E0-B15E-4BBF-BAFE-EFB75E90FED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89DC1AAB-29EE-48F8-9A47-7918A87590C9}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{D22996E0-B15E-4BBF-BAFE-EFB75E90FED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6DCCAEDF-8787-4AC7-8039-44973193DD5A}"/>
   <bookViews>
     <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="172">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -492,7 +492,7 @@
     <t>$0.00</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>RCSA3UY</t>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>CS1A0535 4-in-1 Line Smoothing Capsules Duo or CS2A0686 Gift bundle</t>
+  </si>
+  <si>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
 </sst>
 </file>
@@ -1490,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3991,7 +3994,7 @@
     </row>
     <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="13" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
@@ -4446,6 +4449,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -4610,20 +4619,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5957B697-AC7C-49C6-8A6C-5DB7FB51AE34}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D7BE59-A206-4179-9FEE-032152C8CFA7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C4A3A7-C181-4581-9B16-24F82E5C4115}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C4A3A7-C181-4581-9B16-24F82E5C4115}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D7BE59-A206-4179-9FEE-032152C8CFA7}"/>
 </file>